--- a/Data/Bank_churn/Images/XGB_ValidationCurve_learning_rate.xlsx
+++ b/Data/Bank_churn/Images/XGB_ValidationCurve_learning_rate.xlsx
@@ -471,7 +471,7 @@
         <v>0.84</v>
       </c>
       <c r="D2" t="n">
-        <v>8.119999999999999</v>
+        <v>12.92</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -488,10 +488,10 @@
         <v>0.87</v>
       </c>
       <c r="D3" t="n">
-        <v>8.800000000000001</v>
+        <v>13.53</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         <v>0.87</v>
       </c>
       <c r="D4" t="n">
-        <v>8.470000000000001</v>
+        <v>13.31</v>
       </c>
       <c r="E4" t="n">
         <v>0.02</v>
@@ -522,10 +522,10 @@
         <v>0.86</v>
       </c>
       <c r="D5" t="n">
-        <v>8.9</v>
+        <v>9.92</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -539,7 +539,7 @@
         <v>0.86</v>
       </c>
       <c r="D6" t="n">
-        <v>8.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>0.01</v>
@@ -556,10 +556,10 @@
         <v>0.86</v>
       </c>
       <c r="D7" t="n">
-        <v>8.83</v>
+        <v>9.09</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>0.86</v>
       </c>
       <c r="D8" t="n">
-        <v>6.72</v>
+        <v>7.06</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
@@ -590,7 +590,7 @@
         <v>0.86</v>
       </c>
       <c r="D9" t="n">
-        <v>5.15</v>
+        <v>5.64</v>
       </c>
       <c r="E9" t="n">
         <v>0.01</v>
